--- a/data/trans_orig/P39B-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P39B-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>73389</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57073</v>
+        <v>57641</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92445</v>
+        <v>91697</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09246811052434005</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07191053357712671</v>
+        <v>0.07262556875915001</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1164776805094388</v>
+        <v>0.1155357883241904</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -764,19 +764,19 @@
         <v>59599</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45290</v>
+        <v>44129</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>78866</v>
+        <v>77901</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06322477451401434</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04804543465302455</v>
+        <v>0.04681330400417136</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08366439631474863</v>
+        <v>0.08264059534111734</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>123</v>
@@ -785,19 +785,19 @@
         <v>132988</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>111653</v>
+        <v>111857</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>156409</v>
+        <v>159553</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07659184938236741</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06430430812537084</v>
+        <v>0.06442185764768282</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09008035089175331</v>
+        <v>0.09189153292474285</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>206544</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>180604</v>
+        <v>179987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>233513</v>
+        <v>234800</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2602390568097648</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2275556550782694</v>
+        <v>0.2267778936088212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2942197282016148</v>
+        <v>0.295840487713454</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>141</v>
@@ -835,19 +835,19 @@
         <v>150057</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>129481</v>
+        <v>128807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>176061</v>
+        <v>175853</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1591855635148343</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1373583316000186</v>
+        <v>0.1366425899810401</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1867719336395724</v>
+        <v>0.1865509031585822</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>334</v>
@@ -856,19 +856,19 @@
         <v>356601</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>319756</v>
+        <v>323076</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>392801</v>
+        <v>392446</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2053769286212296</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1841570760253584</v>
+        <v>0.1860690067846515</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2262256315797855</v>
+        <v>0.2260214732479604</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>255435</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>226483</v>
+        <v>228263</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>282327</v>
+        <v>281229</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3218399240679032</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2853612183896745</v>
+        <v>0.2876039725430121</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3557231935957152</v>
+        <v>0.3543405817996553</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>269</v>
@@ -906,19 +906,19 @@
         <v>296750</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>267829</v>
+        <v>267489</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>324944</v>
+        <v>327885</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3148025763719283</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.284123002801513</v>
+        <v>0.2837613883356236</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3447120992163478</v>
+        <v>0.3478321086697382</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>510</v>
@@ -927,19 +927,19 @@
         <v>552184</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>514976</v>
+        <v>508063</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>594610</v>
+        <v>591561</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.318019335003485</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2965901280422391</v>
+        <v>0.2926088141992567</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3424534893035251</v>
+        <v>0.3406972956039457</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>78852</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62016</v>
+        <v>63935</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96868</v>
+        <v>98123</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09935112690528304</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07813830256276584</v>
+        <v>0.08055590304342126</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1220512434140254</v>
+        <v>0.1236316614827398</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>135</v>
@@ -977,19 +977,19 @@
         <v>143389</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>121929</v>
+        <v>119947</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>169583</v>
+        <v>166557</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1521121006227455</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1293469026969695</v>
+        <v>0.1272438751275523</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1798997778065701</v>
+        <v>0.1766892388073443</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>208</v>
@@ -998,19 +998,19 @@
         <v>222241</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>194455</v>
+        <v>195212</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>252537</v>
+        <v>251422</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1279951570031973</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1119925998432105</v>
+        <v>0.1124281143930244</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1454436332616535</v>
+        <v>0.1448016815259484</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>179450</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>157449</v>
+        <v>155825</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>206663</v>
+        <v>204244</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2261017816927089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1983803254701987</v>
+        <v>0.1963353092854735</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2603886226698191</v>
+        <v>0.2573406831496924</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>270</v>
@@ -1048,19 +1048,19 @@
         <v>292859</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>262825</v>
+        <v>263369</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>322608</v>
+        <v>322516</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3106749849764775</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2788140320078461</v>
+        <v>0.279391733648403</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3422341174514434</v>
+        <v>0.3421362064770806</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>435</v>
@@ -1069,19 +1069,19 @@
         <v>472309</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>435630</v>
+        <v>436391</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>510749</v>
+        <v>507588</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2720167299897207</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2508922136810748</v>
+        <v>0.2513303991127443</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2941552777171036</v>
+        <v>0.2923351044492407</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>86212</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68068</v>
+        <v>69535</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105199</v>
+        <v>106510</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1129206709737066</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0891566135512761</v>
+        <v>0.0910771677881715</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.137790433229904</v>
+        <v>0.1395079354304593</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -1194,19 +1194,19 @@
         <v>68216</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53207</v>
+        <v>52053</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89223</v>
+        <v>85981</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07380173619772552</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0575643375850339</v>
+        <v>0.05631597238265444</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09652951789786653</v>
+        <v>0.0930220519165776</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>145</v>
@@ -1215,19 +1215,19 @@
         <v>154427</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>131632</v>
+        <v>132249</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>178339</v>
+        <v>182545</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09149726705323351</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07799124483827886</v>
+        <v>0.07835690728053339</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1056652558326759</v>
+        <v>0.108156989932773</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>189072</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>165447</v>
+        <v>166679</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>214624</v>
+        <v>214174</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.247648367092502</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2167038917596469</v>
+        <v>0.2183176497226753</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2811166727515678</v>
+        <v>0.2805268044586114</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>182</v>
@@ -1265,19 +1265,19 @@
         <v>197849</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>172920</v>
+        <v>171525</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>226355</v>
+        <v>223436</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2140508154497858</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1870799905848493</v>
+        <v>0.1855712121490741</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.244891113287326</v>
+        <v>0.2417329148350103</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>365</v>
@@ -1286,19 +1286,19 @@
         <v>386921</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>351435</v>
+        <v>350878</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>420948</v>
+        <v>424973</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2292487372533275</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.208223879233214</v>
+        <v>0.2078934674442011</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2494095217718696</v>
+        <v>0.2517946278471939</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>228831</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>204159</v>
+        <v>203650</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>254947</v>
+        <v>256608</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2997245369175669</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2674088711677182</v>
+        <v>0.2667422568071262</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3339313016558504</v>
+        <v>0.3361081112927826</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>264</v>
@@ -1336,19 +1336,19 @@
         <v>282376</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>257580</v>
+        <v>250044</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>308322</v>
+        <v>309439</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3054996480385884</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2786731041955008</v>
+        <v>0.270520522368869</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3335708608752652</v>
+        <v>0.3347789026423798</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>480</v>
@@ -1357,19 +1357,19 @@
         <v>511206</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>472071</v>
+        <v>472461</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>553161</v>
+        <v>553853</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3028872646078727</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2796998421960922</v>
+        <v>0.2799310367238843</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3277451545281805</v>
+        <v>0.328155572509019</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>97639</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80527</v>
+        <v>79900</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>117671</v>
+        <v>122287</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1278880490486564</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1054750342607906</v>
+        <v>0.1046544011838497</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1541263079578053</v>
+        <v>0.1601730736327401</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>113</v>
@@ -1407,19 +1407,19 @@
         <v>118381</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99113</v>
+        <v>99877</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>140290</v>
+        <v>141575</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1280748961948142</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1072296001195206</v>
+        <v>0.1080558582617882</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.151778428649243</v>
+        <v>0.1531681433111755</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>198</v>
@@ -1428,19 +1428,19 @@
         <v>216019</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>189517</v>
+        <v>188659</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>246458</v>
+        <v>247403</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1279903755027496</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1122876591700734</v>
+        <v>0.1117796241470098</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1460252690775897</v>
+        <v>0.1465851781412507</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>161717</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>138448</v>
+        <v>137777</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>183970</v>
+        <v>184674</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.211818375967568</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1813406574567782</v>
+        <v>0.1804611091386019</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2409659491310725</v>
+        <v>0.2418875307477061</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>239</v>
@@ -1478,19 +1478,19 @@
         <v>257487</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>231936</v>
+        <v>230141</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>285320</v>
+        <v>285850</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2785729041190861</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.250929436567664</v>
+        <v>0.2489872772564109</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3086850964509883</v>
+        <v>0.3092579736332324</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>390</v>
@@ -1499,19 +1499,19 @@
         <v>419204</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>380315</v>
+        <v>381280</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>456845</v>
+        <v>457101</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2483763555828168</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2253345957695482</v>
+        <v>0.2259065761174039</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2706786454256369</v>
+        <v>0.2708301460362584</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>65781</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50889</v>
+        <v>51918</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82455</v>
+        <v>83904</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09157955921210428</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0708477743643425</v>
+        <v>0.07228068138046564</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1147940307062409</v>
+        <v>0.116810246065018</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -1624,19 +1624,19 @@
         <v>48636</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36273</v>
+        <v>36351</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64218</v>
+        <v>64075</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0632787669388906</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04719337466606694</v>
+        <v>0.04729498151311003</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08355108095583091</v>
+        <v>0.08336592970277704</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -1645,19 +1645,19 @@
         <v>114417</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>96686</v>
+        <v>93657</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>138986</v>
+        <v>137749</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07695035236553534</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06502569168270839</v>
+        <v>0.0629884528221432</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0934739136162322</v>
+        <v>0.09264243396097262</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>162652</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>139441</v>
+        <v>139898</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>189321</v>
+        <v>185329</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2264430109110322</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1941292340542261</v>
+        <v>0.1947646608825259</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2635713096365379</v>
+        <v>0.2580137480527362</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>152</v>
@@ -1695,19 +1695,19 @@
         <v>160970</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>139122</v>
+        <v>138754</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>183641</v>
+        <v>185262</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.209432075066704</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1810059191306546</v>
+        <v>0.1805280991239865</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2389289087518072</v>
+        <v>0.2410368500390114</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>306</v>
@@ -1716,19 +1716,19 @@
         <v>323622</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>292096</v>
+        <v>293612</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>353641</v>
+        <v>357558</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2176497412132107</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1964475556296001</v>
+        <v>0.19746689906527</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2378386463526911</v>
+        <v>0.2404733779454025</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>234235</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>209328</v>
+        <v>207245</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>261080</v>
+        <v>259538</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3261005232828351</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.291425378535001</v>
+        <v>0.288525437715145</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3634743771249665</v>
+        <v>0.3613275186212911</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>199</v>
@@ -1766,19 +1766,19 @@
         <v>212741</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>189978</v>
+        <v>189232</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>239174</v>
+        <v>240723</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2767895209481921</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2471725979805893</v>
+        <v>0.2462025544894378</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3111796798282505</v>
+        <v>0.3131952657471604</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>418</v>
@@ -1787,19 +1787,19 @@
         <v>446976</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>412767</v>
+        <v>409508</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>484052</v>
+        <v>485099</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3006107473782957</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.277603861716044</v>
+        <v>0.2754118241251788</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3255459952981111</v>
+        <v>0.3262500014976858</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>103010</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>84178</v>
+        <v>83855</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>124832</v>
+        <v>124383</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1434102023722631</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.117191844736494</v>
+        <v>0.1167423923171336</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1737908756352285</v>
+        <v>0.1731648359117541</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>117</v>
@@ -1837,19 +1837,19 @@
         <v>125967</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>106548</v>
+        <v>104125</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>147825</v>
+        <v>146132</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.163891349000859</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1386249900138294</v>
+        <v>0.1354727181650895</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1923291914432826</v>
+        <v>0.1901274008186908</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>208</v>
@@ -1858,19 +1858,19 @@
         <v>228977</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>198898</v>
+        <v>199415</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>259949</v>
+        <v>259098</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1539972886839148</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1337676054704325</v>
+        <v>0.1341154340033013</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1748267941069688</v>
+        <v>0.1742549549153615</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>152613</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>130965</v>
+        <v>129956</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>175723</v>
+        <v>174002</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2124667042217653</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1823282697075049</v>
+        <v>0.1809244540660705</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2446403428292505</v>
+        <v>0.2422447292366025</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>204</v>
@@ -1908,19 +1908,19 @@
         <v>220288</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>196948</v>
+        <v>196328</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>248031</v>
+        <v>249135</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2866082880453543</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2562416105595635</v>
+        <v>0.2554353264028777</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3227033797606202</v>
+        <v>0.3241405284684424</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>348</v>
@@ -1929,19 +1929,19 @@
         <v>372901</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>340705</v>
+        <v>339301</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>410004</v>
+        <v>410440</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2507918703590435</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2291390962367951</v>
+        <v>0.2281946547534068</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2757454354702369</v>
+        <v>0.2760388111149177</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>31013</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20695</v>
+        <v>20028</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43959</v>
+        <v>45057</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07544469879896247</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05034466989651869</v>
+        <v>0.04872113437978649</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1069381846289197</v>
+        <v>0.1096113566960202</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2054,19 +2054,19 @@
         <v>20892</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12846</v>
+        <v>13602</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30257</v>
+        <v>31060</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05431924486093063</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03339866467711437</v>
+        <v>0.03536488864522606</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07866547702393473</v>
+        <v>0.08075310395200015</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -2075,19 +2075,19 @@
         <v>51905</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38421</v>
+        <v>38828</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>67610</v>
+        <v>67146</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06523298623662553</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04828652968498608</v>
+        <v>0.04879763336534643</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08497049964221129</v>
+        <v>0.08438683084233618</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>87231</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>70902</v>
+        <v>70758</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>106270</v>
+        <v>105430</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2122063530675038</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.172483136016285</v>
+        <v>0.1721333703308547</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2585247407341129</v>
+        <v>0.2564803896128628</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>74</v>
@@ -2125,19 +2125,19 @@
         <v>82408</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>67615</v>
+        <v>68634</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>101720</v>
+        <v>101783</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2142561318341037</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1757956831285355</v>
+        <v>0.1784453553736773</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2644651762923826</v>
+        <v>0.2646302642961326</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>155</v>
@@ -2146,19 +2146,19 @@
         <v>169639</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>144121</v>
+        <v>146400</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>195085</v>
+        <v>195665</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2131971839221827</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1811270164704599</v>
+        <v>0.1839912652932861</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2451773809466676</v>
+        <v>0.2459060088449892</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>134321</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>115602</v>
+        <v>113424</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>158262</v>
+        <v>156200</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3267637871625162</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2812251846640215</v>
+        <v>0.275927940567974</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3850044790935379</v>
+        <v>0.3799893086300022</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>114</v>
@@ -2196,19 +2196,19 @@
         <v>126801</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>107420</v>
+        <v>107846</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>146222</v>
+        <v>146153</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3296764177294362</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2792846784867495</v>
+        <v>0.2803928021704855</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3801685343233194</v>
+        <v>0.3799888031542756</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>233</v>
@@ -2217,19 +2217,19 @@
         <v>261123</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>233975</v>
+        <v>232583</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>290293</v>
+        <v>288123</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3281717070224591</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2940533311226841</v>
+        <v>0.292304278900014</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3648323415453134</v>
+        <v>0.3621055097459274</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>57295</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43693</v>
+        <v>44411</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>74198</v>
+        <v>74442</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1393806880137941</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1062912182577264</v>
+        <v>0.1080388558173139</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.180501455281261</v>
+        <v>0.1810965236002001</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -2267,19 +2267,19 @@
         <v>46004</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32695</v>
+        <v>33703</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60624</v>
+        <v>60713</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1196079765506337</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08500440272750162</v>
+        <v>0.08762502209493553</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1576192615802575</v>
+        <v>0.1578495649909519</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>93</v>
@@ -2288,19 +2288,19 @@
         <v>103299</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>85117</v>
+        <v>83186</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>124784</v>
+        <v>125633</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1298228699128388</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1069732072105376</v>
+        <v>0.1045459796875218</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1568252764722501</v>
+        <v>0.1578925222802737</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>101206</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>83367</v>
+        <v>84049</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>122901</v>
+        <v>121006</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2462044729572234</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2028082335956326</v>
+        <v>0.2044660370196758</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2989823523656735</v>
+        <v>0.2943711455994341</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>99</v>
@@ -2338,19 +2338,19 @@
         <v>108518</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>90446</v>
+        <v>90685</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>125864</v>
+        <v>127850</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2821402290248958</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2351539756000664</v>
+        <v>0.235775140967878</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3272396680064289</v>
+        <v>0.3324033893549562</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>188</v>
@@ -2359,19 +2359,19 @@
         <v>209724</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>184196</v>
+        <v>184588</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>237930</v>
+        <v>236251</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.263575252905894</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2314922702880218</v>
+        <v>0.2319850644550412</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2990239852441572</v>
+        <v>0.2969131610261134</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>256394</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>225702</v>
+        <v>226320</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>286663</v>
+        <v>290057</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09543812630760388</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08401350808126752</v>
+        <v>0.08424344354616031</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.106705205161707</v>
+        <v>0.1079684984450459</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>182</v>
@@ -2484,19 +2484,19 @@
         <v>197343</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>173200</v>
+        <v>170999</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>229238</v>
+        <v>230855</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06534139517536339</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05734737896913863</v>
+        <v>0.05661862407878022</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07590180592948929</v>
+        <v>0.07643747766513402</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>425</v>
@@ -2505,19 +2505,19 @@
         <v>453737</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>414325</v>
+        <v>411116</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>499152</v>
+        <v>495944</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0795098249174306</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07260355071433493</v>
+        <v>0.07204115793392753</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08746792915914921</v>
+        <v>0.08690577859930915</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>645498</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>595516</v>
+        <v>598774</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>693044</v>
+        <v>694274</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2402752913650377</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2216703750604457</v>
+        <v>0.2228831049324002</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2579732806607291</v>
+        <v>0.2584311423703971</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>549</v>
@@ -2555,19 +2555,19 @@
         <v>591284</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>549974</v>
+        <v>545308</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>634810</v>
+        <v>639105</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1957771449415937</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1820994149983966</v>
+        <v>0.1805544080997684</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2101890908880441</v>
+        <v>0.2116109096187071</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1160</v>
@@ -2576,19 +2576,19 @@
         <v>1236782</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1176165</v>
+        <v>1176330</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1299598</v>
+        <v>1304693</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2167252292528965</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.206103141350613</v>
+        <v>0.2061320677808945</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2277326917386558</v>
+        <v>0.2286254884059759</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>852821</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>807252</v>
+        <v>805522</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>908723</v>
+        <v>901880</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3174475663179518</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.30048508005031</v>
+        <v>0.2998412014792098</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3382558119269983</v>
+        <v>0.3357087669087052</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>846</v>
@@ -2626,19 +2626,19 @@
         <v>918668</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>869732</v>
+        <v>867500</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>971227</v>
+        <v>973650</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3041757932483327</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2879729022820099</v>
+        <v>0.2872339101193406</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3215785414742647</v>
+        <v>0.3223807567196376</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1641</v>
@@ -2647,19 +2647,19 @@
         <v>1771489</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1704158</v>
+        <v>1693716</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1843745</v>
+        <v>1838202</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3104236539699286</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2986250296126023</v>
+        <v>0.2967952142031671</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3230852649382658</v>
+        <v>0.3221140210693423</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>336795</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>300246</v>
+        <v>300287</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>373378</v>
+        <v>374814</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1253660778385083</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1117613290260336</v>
+        <v>0.1117763512063093</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1389834607152462</v>
+        <v>0.1395177154616233</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>405</v>
@@ -2697,19 +2697,19 @@
         <v>433741</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>398909</v>
+        <v>393312</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>479206</v>
+        <v>473198</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.14361392911322</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1320807655615698</v>
+        <v>0.130227858656466</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.158667508736967</v>
+        <v>0.1566785194254412</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>707</v>
@@ -2718,19 +2718,19 @@
         <v>770536</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>719399</v>
+        <v>720035</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>823205</v>
+        <v>825392</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1350235145066156</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1260625268587299</v>
+        <v>0.1261740392026952</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1442528526286594</v>
+        <v>0.1446361221379515</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>594986</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>548164</v>
+        <v>550539</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>638769</v>
+        <v>640047</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2214729381708984</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.204044422282819</v>
+        <v>0.2049282847628689</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2377704235287343</v>
+        <v>0.238246219104538</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>812</v>
@@ -2768,19 +2768,19 @@
         <v>879151</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>826364</v>
+        <v>825277</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>928943</v>
+        <v>928738</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2910917375214901</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2736134123537999</v>
+        <v>0.2732535731849134</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3075780980032269</v>
+        <v>0.3075101421246813</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1361</v>
@@ -2789,19 +2789,19 @@
         <v>1474137</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1409342</v>
+        <v>1399332</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1546395</v>
+        <v>1537847</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2583177773531287</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2469634277351647</v>
+        <v>0.245209319516755</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2709796529473415</v>
+        <v>0.2694818111575549</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>124459</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>104572</v>
+        <v>105863</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>148103</v>
+        <v>146086</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1450915802539086</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1219086053222742</v>
+        <v>0.1234133781245098</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1726552921184345</v>
+        <v>0.1703043854029657</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>94</v>
@@ -3154,19 +3154,19 @@
         <v>95555</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>78648</v>
+        <v>78557</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116449</v>
+        <v>116115</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08857196562335688</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07290028449605822</v>
+        <v>0.07281588050656722</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.107938777736741</v>
+        <v>0.1076296418516888</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>211</v>
@@ -3175,19 +3175,19 @@
         <v>220014</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>192312</v>
+        <v>190337</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>247990</v>
+        <v>248609</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1136061731252798</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09930197404095535</v>
+        <v>0.09828224115274342</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1280522302719541</v>
+        <v>0.1283718075495307</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>224264</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>197472</v>
+        <v>199141</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>250408</v>
+        <v>251617</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.26144326590342</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2302097062783784</v>
+        <v>0.2321545015500625</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2919213967171401</v>
+        <v>0.2933306901014596</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>257</v>
@@ -3225,19 +3225,19 @@
         <v>272505</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>243197</v>
+        <v>244397</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>303986</v>
+        <v>302033</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2525905733813471</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2254242865158655</v>
+        <v>0.2265368270901237</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2817705003109828</v>
+        <v>0.2799608060245216</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>471</v>
@@ -3246,19 +3246,19 @@
         <v>496770</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>460413</v>
+        <v>457255</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>536160</v>
+        <v>534577</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.256511692500735</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2377387304554845</v>
+        <v>0.2361080702594332</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2768512971790184</v>
+        <v>0.2760336967918239</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>241550</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>214767</v>
+        <v>214310</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>268099</v>
+        <v>267839</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2815946431390063</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2503716772534982</v>
+        <v>0.249839218420288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3125456175603974</v>
+        <v>0.3122416698750088</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>318</v>
@@ -3296,19 +3296,19 @@
         <v>337571</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>308628</v>
+        <v>307866</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>369585</v>
+        <v>369539</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3129011849849737</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2860734885471475</v>
+        <v>0.2853672146835129</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3425754705112055</v>
+        <v>0.3425329119274035</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>547</v>
@@ -3317,19 +3317,19 @@
         <v>579121</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>539833</v>
+        <v>538621</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>622720</v>
+        <v>623208</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2990345924778844</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2787480007256058</v>
+        <v>0.2781218991226049</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3215473348855946</v>
+        <v>0.3217991689065481</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>119113</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>99737</v>
+        <v>99433</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>140827</v>
+        <v>141050</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1388598625802233</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1162711227026434</v>
+        <v>0.1159172991474111</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1641734863488737</v>
+        <v>0.1644331013140603</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>133</v>
@@ -3367,19 +3367,19 @@
         <v>140357</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>118982</v>
+        <v>120729</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>164266</v>
+        <v>164143</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1300992892910927</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1102871056705579</v>
+        <v>0.1119057735260281</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1522611788050487</v>
+        <v>0.1521470450841938</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>246</v>
@@ -3388,19 +3388,19 @@
         <v>259470</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>230278</v>
+        <v>232267</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>289975</v>
+        <v>292794</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1339796060800424</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.118906007958789</v>
+        <v>0.1199331774234136</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1497312028871227</v>
+        <v>0.1511868270828888</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>148407</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>127805</v>
+        <v>125614</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>172474</v>
+        <v>172009</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1730106481234418</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1489923416683314</v>
+        <v>0.1464382911534111</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2010669652313928</v>
+        <v>0.2005251943386564</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>207</v>
@@ -3438,19 +3438,19 @@
         <v>232854</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>205623</v>
+        <v>207049</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>261353</v>
+        <v>267044</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2158369867192296</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1905962631362078</v>
+        <v>0.1919174445731878</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2422529560853451</v>
+        <v>0.2475283090146266</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>347</v>
@@ -3459,19 +3459,19 @@
         <v>381261</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>346049</v>
+        <v>347231</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>419416</v>
+        <v>419230</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1968679358160583</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1786859321541119</v>
+        <v>0.1792962575894027</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2165694869079448</v>
+        <v>0.2164732738360629</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>92356</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>75449</v>
+        <v>74812</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112914</v>
+        <v>111533</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1317330956607722</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1076177087163634</v>
+        <v>0.1067083938483129</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1610564244308809</v>
+        <v>0.1590853463084002</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -3584,19 +3584,19 @@
         <v>61067</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46594</v>
+        <v>47212</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75901</v>
+        <v>77686</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07148476853693206</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0545426752869243</v>
+        <v>0.05526713886242005</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08885017610581591</v>
+        <v>0.09093955607313703</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>148</v>
@@ -3605,19 +3605,19 @@
         <v>153423</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>128555</v>
+        <v>130189</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>178518</v>
+        <v>177000</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09864225967933479</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0826534029846535</v>
+        <v>0.08370446940301182</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1147773455292142</v>
+        <v>0.1138008455483708</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>182972</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>159769</v>
+        <v>159995</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>205788</v>
+        <v>206203</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2609831480236656</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2278875223263769</v>
+        <v>0.228210891463753</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2935269707745387</v>
+        <v>0.2941196701054314</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>232</v>
@@ -3655,19 +3655,19 @@
         <v>244412</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>221011</v>
+        <v>216555</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>273596</v>
+        <v>270088</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2861096731286343</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2587163736413435</v>
+        <v>0.2535009708920612</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3202725533978701</v>
+        <v>0.3161666629034631</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>411</v>
@@ -3676,19 +3676,19 @@
         <v>427383</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>393767</v>
+        <v>394142</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>465981</v>
+        <v>464761</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2747836593527674</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2531700406457077</v>
+        <v>0.2534111512845817</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2995995523136538</v>
+        <v>0.2988156246970704</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>217526</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>193877</v>
+        <v>192758</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>242677</v>
+        <v>242620</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3102696686932654</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2765375012876433</v>
+        <v>0.274941779789489</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3461440758785732</v>
+        <v>0.3460636458133513</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>239</v>
@@ -3726,19 +3726,19 @@
         <v>255956</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>231187</v>
+        <v>228376</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>284594</v>
+        <v>283805</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2996232763220622</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2706290618704892</v>
+        <v>0.2673381283161166</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3331473309853091</v>
+        <v>0.3322237256965042</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>455</v>
@@ -3747,19 +3747,19 @@
         <v>473482</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>438652</v>
+        <v>437569</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>511748</v>
+        <v>513514</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3044222362321887</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2820288068276574</v>
+        <v>0.2813326093392111</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.329025489803116</v>
+        <v>0.33016103969654</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>90334</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74150</v>
+        <v>69962</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108404</v>
+        <v>107705</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1288481795045252</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1057642872089782</v>
+        <v>0.09979131271611445</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1546222643467857</v>
+        <v>0.153626061115044</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>116</v>
@@ -3797,19 +3797,19 @@
         <v>126903</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106916</v>
+        <v>106683</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>148200</v>
+        <v>149753</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.148553296013043</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1251565222915929</v>
+        <v>0.1248831861954256</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.173483701110721</v>
+        <v>0.175301726698538</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -3818,19 +3818,19 @@
         <v>217237</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>190630</v>
+        <v>191637</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>245947</v>
+        <v>246348</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1396710323455372</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1225646014552871</v>
+        <v>0.1232120593916477</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1581299166673966</v>
+        <v>0.1583878891562338</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>117899</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98687</v>
+        <v>101604</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>138748</v>
+        <v>139502</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1681659081177716</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1407624793518567</v>
+        <v>0.1449239133438824</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1979042422542432</v>
+        <v>0.1989799113957523</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>153</v>
@@ -3868,19 +3868,19 @@
         <v>165922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>143214</v>
+        <v>143395</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>189858</v>
+        <v>194310</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1942289859993285</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1676467955623974</v>
+        <v>0.1678593417615329</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2222489377023901</v>
+        <v>0.2274601523024417</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>269</v>
@@ -3889,19 +3889,19 @@
         <v>283821</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>253198</v>
+        <v>252750</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>314506</v>
+        <v>318095</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1824808123901719</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1627923097457214</v>
+        <v>0.1625040460543862</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2022097791520751</v>
+        <v>0.2045174673508225</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>61079</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46362</v>
+        <v>47406</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77742</v>
+        <v>78631</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09020619320686771</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06847053969056352</v>
+        <v>0.07001358620130753</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1148151212617218</v>
+        <v>0.1161281514382134</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -4014,19 +4014,19 @@
         <v>41259</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30187</v>
+        <v>29253</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55216</v>
+        <v>55038</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06148409345426593</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04498441820379977</v>
+        <v>0.04359193231066355</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08228200382425023</v>
+        <v>0.08201655005671747</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>99</v>
@@ -4035,19 +4035,19 @@
         <v>102338</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84225</v>
+        <v>84688</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122296</v>
+        <v>123893</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07590958383092358</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06247400279672332</v>
+        <v>0.06281736974388227</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09071373194776852</v>
+        <v>0.09189817088930372</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>205865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>183587</v>
+        <v>182975</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>233388</v>
+        <v>229731</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3040385248092059</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2711359897955203</v>
+        <v>0.2702326966830316</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3446855395206306</v>
+        <v>0.3392846060084815</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>170</v>
@@ -4085,19 +4085,19 @@
         <v>175114</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>153175</v>
+        <v>153768</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>199224</v>
+        <v>200094</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2609540446213747</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2282601688991719</v>
+        <v>0.2291439786289196</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.296881910946404</v>
+        <v>0.2981790296006063</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>367</v>
@@ -4106,19 +4106,19 @@
         <v>380980</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>348037</v>
+        <v>345889</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>415650</v>
+        <v>413406</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2825929484510488</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2581575736894182</v>
+        <v>0.2565639873923318</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3083099978669385</v>
+        <v>0.3066452611045569</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>213211</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>186881</v>
+        <v>188013</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>238654</v>
+        <v>236497</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3148874301120993</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2760011520080756</v>
+        <v>0.277672103031838</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3524631554512025</v>
+        <v>0.3492770007485346</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>211</v>
@@ -4156,19 +4156,19 @@
         <v>227454</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>202744</v>
+        <v>202652</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>253157</v>
+        <v>253702</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3389499973650157</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3021276616157627</v>
+        <v>0.301990435286915</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3772521505847113</v>
+        <v>0.3780642800178141</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>414</v>
@@ -4177,19 +4177,19 @@
         <v>440665</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>409082</v>
+        <v>403865</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>476424</v>
+        <v>480416</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3268647272999962</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3034380693232539</v>
+        <v>0.2995682362703947</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3533889920824672</v>
+        <v>0.3563499238447807</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>91326</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74108</v>
+        <v>73961</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>110908</v>
+        <v>110754</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1348774730087475</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1094484516993769</v>
+        <v>0.1092308859496681</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1637982237535563</v>
+        <v>0.1635705681389504</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -4227,19 +4227,19 @@
         <v>99190</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>80553</v>
+        <v>80935</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>120394</v>
+        <v>119010</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1478129748979654</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1200392296898648</v>
+        <v>0.1206091622017963</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1794099373648483</v>
+        <v>0.1773481196402573</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>175</v>
@@ -4248,19 +4248,19 @@
         <v>190516</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>164492</v>
+        <v>165288</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>221013</v>
+        <v>217563</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1413162020426575</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1220122757937876</v>
+        <v>0.1226026603138452</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1639371984805132</v>
+        <v>0.1613781975585149</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>105622</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88129</v>
+        <v>86235</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>126159</v>
+        <v>125814</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1559903788630796</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1301566401015948</v>
+        <v>0.1273581748072788</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1863220307900109</v>
+        <v>0.1858119770578727</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>119</v>
@@ -4298,19 +4298,19 @@
         <v>128036</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>108069</v>
+        <v>108277</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>149542</v>
+        <v>149768</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1907988896613782</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1610435499440107</v>
+        <v>0.161353151147841</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2228460262278434</v>
+        <v>0.2231833016652365</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>222</v>
@@ -4319,19 +4319,19 @@
         <v>233658</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>205554</v>
+        <v>205119</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>263133</v>
+        <v>263863</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1733165383753739</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1524700804860296</v>
+        <v>0.1521475305196851</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1951798944807604</v>
+        <v>0.1957215951211999</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>28996</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19176</v>
+        <v>19070</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41019</v>
+        <v>40752</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07389399259460336</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04886903876870299</v>
+        <v>0.04859797693816695</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1045328653987269</v>
+        <v>0.1038524863999053</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -4444,19 +4444,19 @@
         <v>33412</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23049</v>
+        <v>21834</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47203</v>
+        <v>46128</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0852513520829129</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05880960859715192</v>
+        <v>0.05571087888812502</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1204414147274784</v>
+        <v>0.1176972555367163</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>55</v>
@@ -4465,19 +4465,19 @@
         <v>62408</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47458</v>
+        <v>46560</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>79428</v>
+        <v>79260</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0795691732250136</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06050884107268566</v>
+        <v>0.05936301884682892</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1012695647114605</v>
+        <v>0.1010562293246382</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>104472</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>85028</v>
+        <v>87235</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>125333</v>
+        <v>125293</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2662376590828316</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2166873068753707</v>
+        <v>0.2223099350632122</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3193999264304232</v>
+        <v>0.3192985806982321</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>94</v>
@@ -4515,19 +4515,19 @@
         <v>99741</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>83129</v>
+        <v>83739</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>118108</v>
+        <v>117317</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2544948959991979</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2121085470234716</v>
+        <v>0.2136645375043051</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3013601365977986</v>
+        <v>0.2993409629711414</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>189</v>
@@ -4536,19 +4536,19 @@
         <v>204213</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>179790</v>
+        <v>178174</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>232781</v>
+        <v>231645</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2603698953945966</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2292304280983033</v>
+        <v>0.2271702266451099</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2967933557394273</v>
+        <v>0.2953450473469829</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>116502</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>99551</v>
+        <v>98209</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>136362</v>
+        <v>134770</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.296894346355669</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2536979781286652</v>
+        <v>0.2502779084949816</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3475059094455384</v>
+        <v>0.3434485647406878</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>98</v>
@@ -4586,19 +4586,19 @@
         <v>107554</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>88424</v>
+        <v>90035</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>124793</v>
+        <v>128066</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2744309141470418</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2256182889919562</v>
+        <v>0.2297280553507418</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3184170942692183</v>
+        <v>0.3267676696284521</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>210</v>
@@ -4607,19 +4607,19 @@
         <v>224056</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>199321</v>
+        <v>195509</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>250048</v>
+        <v>251401</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.285669551059354</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.254132540101288</v>
+        <v>0.249272804479993</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3188094479674483</v>
+        <v>0.3205341534953862</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>56131</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43102</v>
+        <v>44264</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>71319</v>
+        <v>73027</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1430456052945874</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1098412798327161</v>
+        <v>0.1128020274084485</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1817493868041966</v>
+        <v>0.1861025582307036</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -4657,19 +4657,19 @@
         <v>70597</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>54877</v>
+        <v>55055</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>87009</v>
+        <v>88723</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1801308635353093</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.140021255979456</v>
+        <v>0.1404745388840574</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.222009389137313</v>
+        <v>0.2263812078476397</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>117</v>
@@ -4678,19 +4678,19 @@
         <v>126728</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>106247</v>
+        <v>106055</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>149509</v>
+        <v>147675</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1615768087365622</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1354635512350315</v>
+        <v>0.1352197091805308</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1906232532041457</v>
+        <v>0.1882839688256887</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>86300</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>70394</v>
+        <v>70750</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>105184</v>
+        <v>105280</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2199283966723087</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1793928739358827</v>
+        <v>0.1803010663540814</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2680518756298677</v>
+        <v>0.2682969492106291</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>76</v>
@@ -4728,19 +4728,19 @@
         <v>80614</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>65195</v>
+        <v>63870</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>97474</v>
+        <v>97123</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2056919742355381</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1663496355929474</v>
+        <v>0.1629684349552472</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.248709505954018</v>
+        <v>0.2478135255074027</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>155</v>
@@ -4749,19 +4749,19 @@
         <v>166915</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>145628</v>
+        <v>144781</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>192505</v>
+        <v>190223</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2128145715844736</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1856746047732077</v>
+        <v>0.1845944271120891</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2454419220373985</v>
+        <v>0.2425324072714754</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>306890</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>272929</v>
+        <v>271282</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>340147</v>
+        <v>340895</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1167598933772763</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1038392781327314</v>
+        <v>0.10321259028275</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.129413044193625</v>
+        <v>0.1296976614505366</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>224</v>
@@ -4874,19 +4874,19 @@
         <v>231292</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>203417</v>
+        <v>203387</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>262958</v>
+        <v>261239</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07719850439063818</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06789456189671636</v>
+        <v>0.06788439539976909</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08776761700988045</v>
+        <v>0.08719398151698476</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>513</v>
@@ -4895,19 +4895,19 @@
         <v>538182</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>494415</v>
+        <v>496558</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>585906</v>
+        <v>583560</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09568606960712896</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08790452861949238</v>
+        <v>0.08828550136660425</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1041710711333293</v>
+        <v>0.1037541064424164</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>717573</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>672625</v>
+        <v>672800</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>768895</v>
+        <v>766053</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2730093602787627</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.255908302490138</v>
+        <v>0.2559748469458547</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2925354703122412</v>
+        <v>0.2914541310217377</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>753</v>
@@ -4945,19 +4945,19 @@
         <v>791772</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>742095</v>
+        <v>742707</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>840778</v>
+        <v>842633</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2642700842619944</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2476892409282909</v>
+        <v>0.2478934799735761</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2806268239732739</v>
+        <v>0.2812459539563905</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1438</v>
@@ -4966,19 +4966,19 @@
         <v>1509345</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1443619</v>
+        <v>1443617</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1575536</v>
+        <v>1580711</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2683540646136319</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2566683095016357</v>
+        <v>0.25666792027858</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2801224536883142</v>
+        <v>0.281042517093288</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>788789</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>744161</v>
+        <v>743500</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>833333</v>
+        <v>837545</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3001040953310191</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2831251412147203</v>
+        <v>0.2828735079088019</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3170514623044347</v>
+        <v>0.3186539941429502</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>866</v>
@@ -5016,19 +5016,19 @@
         <v>928535</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>879748</v>
+        <v>877645</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>988402</v>
+        <v>985373</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3099173450180982</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2936337231506057</v>
+        <v>0.2929317438241298</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3298992261532238</v>
+        <v>0.3288881582859083</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1626</v>
@@ -5037,19 +5037,19 @@
         <v>1717323</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1645733</v>
+        <v>1652839</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1790224</v>
+        <v>1787426</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3053314824328169</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2926031398048876</v>
+        <v>0.2938664879657722</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3182928302964133</v>
+        <v>0.3177953716382849</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>356904</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>318100</v>
+        <v>324315</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>394616</v>
+        <v>391652</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1357883736036362</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.121024931304544</v>
+        <v>0.1233895262145664</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1501364429169446</v>
+        <v>0.149008614998957</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>402</v>
@@ -5087,19 +5087,19 @@
         <v>437046</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>398751</v>
+        <v>399959</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>476548</v>
+        <v>476945</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1458731394750674</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1330913624407341</v>
+        <v>0.1334943643312308</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.159057514863034</v>
+        <v>0.1591900764384201</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>743</v>
@@ -5108,19 +5108,19 @@
         <v>793950</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>744481</v>
+        <v>738541</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>848390</v>
+        <v>846136</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1411603937521077</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1323649701798647</v>
+        <v>0.1313088140705706</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1508394667518084</v>
+        <v>0.1504387869408658</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>458228</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>421703</v>
+        <v>419997</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>499466</v>
+        <v>498489</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1743382774093057</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1604419060357755</v>
+        <v>0.1597927515751461</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1900279693182306</v>
+        <v>0.1896561665179622</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>555</v>
@@ -5158,19 +5158,19 @@
         <v>607426</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>561648</v>
+        <v>565613</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>656594</v>
+        <v>652988</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2027409268542018</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1874612858225121</v>
+        <v>0.1887848645321017</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2191515431940592</v>
+        <v>0.2179479054342937</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>993</v>
@@ -5179,19 +5179,19 @@
         <v>1065654</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1007930</v>
+        <v>1008417</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1125993</v>
+        <v>1124421</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1894679895943146</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1792049193095318</v>
+        <v>0.1792915476908372</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2001958943717557</v>
+        <v>0.199916418304527</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>39512</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27329</v>
+        <v>27498</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55279</v>
+        <v>55445</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1168055006416011</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08079038184151836</v>
+        <v>0.08128792607600667</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1634139115837192</v>
+        <v>0.1639064151914053</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -5544,19 +5544,19 @@
         <v>44902</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34141</v>
+        <v>35123</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57126</v>
+        <v>58464</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08581382440343976</v>
+        <v>0.08581382440343975</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06524707611039043</v>
+        <v>0.06712387429809701</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1091755714857075</v>
+        <v>0.1117313313740403</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>92</v>
@@ -5565,19 +5565,19 @@
         <v>84415</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>69109</v>
+        <v>69143</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>104939</v>
+        <v>103912</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09798252327743605</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08021633911915156</v>
+        <v>0.08025601891408063</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1218056832429044</v>
+        <v>0.1206142154192804</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>86006</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71130</v>
+        <v>68684</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>104889</v>
+        <v>103087</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2542515906858232</v>
+        <v>0.2542515906858231</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2102754147598977</v>
+        <v>0.203042879957661</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3100717859680873</v>
+        <v>0.3047458223184902</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>134</v>
@@ -5615,19 +5615,19 @@
         <v>108037</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>92429</v>
+        <v>90225</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>126830</v>
+        <v>123965</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2064726749939852</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1766424686855143</v>
+        <v>0.172430214962091</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2423883912802495</v>
+        <v>0.2369128479983041</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>214</v>
@@ -5636,19 +5636,19 @@
         <v>194044</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>169221</v>
+        <v>173527</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>219069</v>
+        <v>220273</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2252327844218232</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.196420234294945</v>
+        <v>0.2014183373259835</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2542804667306519</v>
+        <v>0.2556776337700386</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>80293</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65711</v>
+        <v>64595</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>97843</v>
+        <v>97681</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2373623543312583</v>
+        <v>0.2373623543312582</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1942534010345292</v>
+        <v>0.1909554403900648</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2892425091552668</v>
+        <v>0.2887629167089876</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>209</v>
@@ -5686,19 +5686,19 @@
         <v>142245</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>125275</v>
+        <v>125804</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>160249</v>
+        <v>162704</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2718474730022976</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2394158459184508</v>
+        <v>0.2404274068909247</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3062544775399422</v>
+        <v>0.3109472735190122</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>293</v>
@@ -5707,19 +5707,19 @@
         <v>222539</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>201112</v>
+        <v>201456</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>246899</v>
+        <v>246045</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2583070945627091</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2334371702997246</v>
+        <v>0.2338362269285952</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2865832719408448</v>
+        <v>0.2855917800213847</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>69829</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55718</v>
+        <v>55972</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>85811</v>
+        <v>86173</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.206426531646723</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1647125545467085</v>
+        <v>0.1654634415678815</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2536742281430006</v>
+        <v>0.2547448486913622</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>146</v>
@@ -5757,19 +5757,19 @@
         <v>89069</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>75888</v>
+        <v>75239</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>103403</v>
+        <v>103402</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1702219657075466</v>
+        <v>0.1702219657075465</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1450310081714498</v>
+        <v>0.1437908465557498</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1976165870627016</v>
+        <v>0.1976143915479904</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>221</v>
@@ -5778,19 +5778,19 @@
         <v>158898</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>139284</v>
+        <v>138983</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>181449</v>
+        <v>179300</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1844374749750026</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1616709778720002</v>
+        <v>0.1613221422061086</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2106132398282121</v>
+        <v>0.2081193192979878</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>62633</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>48145</v>
+        <v>49663</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>78290</v>
+        <v>78456</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1851540226945945</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1423260980678433</v>
+        <v>0.1468131886736076</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2314403136963421</v>
+        <v>0.2319304472464583</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>212</v>
@@ -5828,19 +5828,19 @@
         <v>138999</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>122383</v>
+        <v>122529</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>159688</v>
+        <v>158300</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.265644061892731</v>
+        <v>0.2656440618927309</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2338885127789075</v>
+        <v>0.234167593009144</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3051828439826763</v>
+        <v>0.3025307030949574</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>279</v>
@@ -5849,19 +5849,19 @@
         <v>201632</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>179648</v>
+        <v>181462</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>224273</v>
+        <v>226388</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.234040122763029</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2085223332756842</v>
+        <v>0.2106284810065004</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2603199591272952</v>
+        <v>0.2627757137440601</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>88032</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71565</v>
+        <v>68788</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111221</v>
+        <v>109951</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1189815587767518</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09672508824373011</v>
+        <v>0.09297238805920283</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1503224765526288</v>
+        <v>0.1486068896030388</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>99</v>
@@ -5974,19 +5974,19 @@
         <v>73440</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61407</v>
+        <v>59751</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89630</v>
+        <v>88874</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0775665631700987</v>
+        <v>0.07756656317009869</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06485786576207664</v>
+        <v>0.06310818539948021</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09466715146743133</v>
+        <v>0.09386857882642821</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>171</v>
@@ -5995,19 +5995,19 @@
         <v>161472</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>136467</v>
+        <v>138519</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>186616</v>
+        <v>187822</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09573374961821939</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08090888925435433</v>
+        <v>0.08212536513822372</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.110641115957378</v>
+        <v>0.1113562515007496</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>221061</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>196604</v>
+        <v>196517</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>247886</v>
+        <v>249749</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2987793175867329</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2657244692636171</v>
+        <v>0.2656072537894928</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3350354575273455</v>
+        <v>0.3375540017384105</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>362</v>
@@ -6045,19 +6045,19 @@
         <v>254898</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>233179</v>
+        <v>232863</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>284215</v>
+        <v>279074</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2692222992664769</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2462819910915636</v>
+        <v>0.2459485547190281</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3001862034343143</v>
+        <v>0.2947567756765103</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>564</v>
@@ -6066,19 +6066,19 @@
         <v>475959</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>442114</v>
+        <v>441538</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>510930</v>
+        <v>511990</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2821878412111041</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2621216982207117</v>
+        <v>0.2617799545664453</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3029212810580124</v>
+        <v>0.3035499057483805</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>205829</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>178368</v>
+        <v>181802</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>229972</v>
+        <v>230984</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2781921372418779</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2410767848762001</v>
+        <v>0.2457179938586538</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3108236801856769</v>
+        <v>0.3121910033643069</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>390</v>
@@ -6116,19 +6116,19 @@
         <v>260960</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>237930</v>
+        <v>238807</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>285132</v>
+        <v>287390</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2756248117115144</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2513008408500615</v>
+        <v>0.2522267706400662</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.301155347533575</v>
+        <v>0.3035395580567137</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>614</v>
@@ -6137,19 +6137,19 @@
         <v>466789</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>431310</v>
+        <v>433541</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>499231</v>
+        <v>502997</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2767509999653082</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2557159205251939</v>
+        <v>0.2570391022689944</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2959853801185042</v>
+        <v>0.2982182440225298</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>111962</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93250</v>
+        <v>94713</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>131465</v>
+        <v>133595</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1513244312776724</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1260333359488624</v>
+        <v>0.1280107686651186</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1776847776736334</v>
+        <v>0.1805627565881819</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>276</v>
@@ -6187,19 +6187,19 @@
         <v>168356</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>149198</v>
+        <v>150015</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>189745</v>
+        <v>188602</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1778168900931355</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.157582044328335</v>
+        <v>0.1584447118995569</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.200407338474677</v>
+        <v>0.1992006449820593</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>412</v>
@@ -6208,19 +6208,19 @@
         <v>280318</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>255151</v>
+        <v>254424</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>307104</v>
+        <v>309061</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1661956540717472</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1512748198603187</v>
+        <v>0.1508437851929352</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1820766018194493</v>
+        <v>0.1832366247292729</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>112996</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94674</v>
+        <v>95175</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>133661</v>
+        <v>132261</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1527225551169651</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1279591303823004</v>
+        <v>0.128635979220495</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1806525185650719</v>
+        <v>0.1787595880085341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>307</v>
@@ -6258,19 +6258,19 @@
         <v>189141</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>169066</v>
+        <v>169400</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>210608</v>
+        <v>211230</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1997694357587744</v>
+        <v>0.1997694357587745</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1785669498053539</v>
+        <v>0.1789195198507638</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2224432935097455</v>
+        <v>0.2231002945237361</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>444</v>
@@ -6279,19 +6279,19 @@
         <v>302137</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>275725</v>
+        <v>275010</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>330290</v>
+        <v>330615</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1791317551336212</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1634727685577344</v>
+        <v>0.1630483523502036</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1958233827991673</v>
+        <v>0.1960157917298641</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>58801</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44040</v>
+        <v>43913</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78030</v>
+        <v>77678</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0664890998567344</v>
+        <v>0.06648909985673442</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04979853087059827</v>
+        <v>0.04965455765818499</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08823211484835007</v>
+        <v>0.0878340191104911</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -6404,19 +6404,19 @@
         <v>60552</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47816</v>
+        <v>48474</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76217</v>
+        <v>76216</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06666539116601763</v>
+        <v>0.06666539116601765</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05264326489554186</v>
+        <v>0.05336813059683744</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08391121787223724</v>
+        <v>0.08391042039781434</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>129</v>
@@ -6425,19 +6425,19 @@
         <v>119353</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>99291</v>
+        <v>97997</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141378</v>
+        <v>144243</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06657842225045212</v>
+        <v>0.06657842225045214</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0553874863806839</v>
+        <v>0.05466550246724679</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07886465220396412</v>
+        <v>0.08046251816474297</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>260080</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>230900</v>
+        <v>231720</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>290318</v>
+        <v>289530</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2940853521468387</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2610908785858005</v>
+        <v>0.2620178529961193</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3282779142192537</v>
+        <v>0.3273863163685134</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>341</v>
@@ -6475,19 +6475,19 @@
         <v>232955</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>211884</v>
+        <v>210347</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>258415</v>
+        <v>257567</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2564738991081636</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2332751034564416</v>
+        <v>0.2315834120266643</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2845039397644756</v>
+        <v>0.2835701317324253</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>587</v>
@@ -6496,19 +6496,19 @@
         <v>493035</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>455485</v>
+        <v>456509</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>532604</v>
+        <v>530956</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2750285703334004</v>
+        <v>0.2750285703334005</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2540821789430455</v>
+        <v>0.2546533654152717</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2971013673157529</v>
+        <v>0.2961819522173711</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>264048</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>237503</v>
+        <v>237567</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>296908</v>
+        <v>296443</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2985720519663388</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2685563299291022</v>
+        <v>0.268629623233354</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3357292228277182</v>
+        <v>0.3352029744241331</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>421</v>
@@ -6546,19 +6546,19 @@
         <v>276047</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>253560</v>
+        <v>251643</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>301512</v>
+        <v>299224</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3039158774759458</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2791584399468112</v>
+        <v>0.2770483183322991</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.331952443182011</v>
+        <v>0.3294330674892863</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>689</v>
@@ -6567,19 +6567,19 @@
         <v>540094</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>503204</v>
+        <v>503837</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>579489</v>
+        <v>578434</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3012796345923264</v>
+        <v>0.3012796345923265</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2807011273648007</v>
+        <v>0.2810545898858821</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3232551329486934</v>
+        <v>0.3226668058298899</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>149260</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>128611</v>
+        <v>128800</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>175446</v>
+        <v>174395</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1687760000650573</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1454265507136089</v>
+        <v>0.1456406586361359</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1983855183480726</v>
+        <v>0.1971974370083355</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>215</v>
@@ -6617,19 +6617,19 @@
         <v>138458</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>119039</v>
+        <v>120862</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>158997</v>
+        <v>158226</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1524369598622637</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1310572468484857</v>
+        <v>0.1330644832411657</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1750490829488727</v>
+        <v>0.1742004746199441</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>387</v>
@@ -6638,19 +6638,19 @@
         <v>287718</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>259482</v>
+        <v>258565</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>318757</v>
+        <v>317212</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1604974173720287</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1447460863201115</v>
+        <v>0.1442349237652831</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1778114438592623</v>
+        <v>0.1769498106028324</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>152180</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>129689</v>
+        <v>128153</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>172532</v>
+        <v>175878</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1720774959650307</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1466459933171286</v>
+        <v>0.1449086383779093</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1950909467774599</v>
+        <v>0.1988737147846082</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>317</v>
@@ -6688,19 +6688,19 @@
         <v>200287</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>179407</v>
+        <v>180576</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>222140</v>
+        <v>222005</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2205078723876092</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1975194366926723</v>
+        <v>0.198806081117359</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2445667641845465</v>
+        <v>0.2444176739309851</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>489</v>
@@ -6709,19 +6709,19 @@
         <v>352467</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>323980</v>
+        <v>325406</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>384772</v>
+        <v>388135</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1966159554517923</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1807250940982055</v>
+        <v>0.1815205221096896</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2146364467021554</v>
+        <v>0.2165125118790522</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>48706</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35776</v>
+        <v>36390</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>64963</v>
+        <v>65212</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.06091649893291144</v>
+        <v>0.06091649893291146</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04474495316895349</v>
+        <v>0.04551235818433383</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08124858206229325</v>
+        <v>0.08155968613820223</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>59</v>
@@ -6834,19 +6834,19 @@
         <v>45892</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35420</v>
+        <v>34486</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>58801</v>
+        <v>59181</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05691841999681203</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04393095744795552</v>
+        <v>0.04277238108224194</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07292930348590185</v>
+        <v>0.07340101114545743</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>105</v>
@@ -6855,19 +6855,19 @@
         <v>94598</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>77375</v>
+        <v>77595</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>116724</v>
+        <v>115254</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05890910436088647</v>
+        <v>0.05890910436088648</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04818394153355297</v>
+        <v>0.04832105229171279</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07268742925697563</v>
+        <v>0.07177196717573769</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>166529</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>142020</v>
+        <v>143357</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>194299</v>
+        <v>194739</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.208276116399376</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1776221204541385</v>
+        <v>0.1792949188422746</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2430069832440292</v>
+        <v>0.2435576162423841</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>238</v>
@@ -6905,19 +6905,19 @@
         <v>170024</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>149888</v>
+        <v>149348</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>192614</v>
+        <v>193230</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2108771752515939</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1859026357238084</v>
+        <v>0.1852330576147757</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2388954325283562</v>
+        <v>0.2396585181548235</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>390</v>
@@ -6926,19 +6926,19 @@
         <v>336553</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>305447</v>
+        <v>306271</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>372632</v>
+        <v>370401</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2095820814653269</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1902112174521025</v>
+        <v>0.190724595254387</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2320492060476525</v>
+        <v>0.2306599172601832</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>272424</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>247360</v>
+        <v>245016</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>300392</v>
+        <v>301248</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3407173817128422</v>
+        <v>0.3407173817128423</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3093707559231539</v>
+        <v>0.3064390494786007</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3756967154863557</v>
+        <v>0.376767399511752</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>424</v>
@@ -6976,19 +6976,19 @@
         <v>271310</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>248093</v>
+        <v>247084</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>295368</v>
+        <v>294259</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3365002878132211</v>
+        <v>0.3365002878132209</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3077036879313031</v>
+        <v>0.3064527970304812</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3663388944419516</v>
+        <v>0.3649623538460666</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>709</v>
@@ -6997,19 +6997,19 @@
         <v>543734</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>506553</v>
+        <v>509513</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>581656</v>
+        <v>580397</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3386000219660439</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3154460133795721</v>
+        <v>0.317289429595051</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3622151659120268</v>
+        <v>0.3614309888173828</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>143006</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>122037</v>
+        <v>120724</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>167000</v>
+        <v>166130</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.178855729044709</v>
+        <v>0.1788557290447091</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1526307162715172</v>
+        <v>0.1509884099122628</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2088651537369019</v>
+        <v>0.2077770921935038</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>222</v>
@@ -7047,19 +7047,19 @@
         <v>134797</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>119207</v>
+        <v>117654</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>154022</v>
+        <v>152979</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1671860227705125</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1478497455656353</v>
+        <v>0.1459241085295334</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1910298470104243</v>
+        <v>0.1897359629010326</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>372</v>
@@ -7068,19 +7068,19 @@
         <v>277803</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>248069</v>
+        <v>251337</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>307909</v>
+        <v>306909</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.172996488792989</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1544802166314326</v>
+        <v>0.1565150240315583</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1917440422379985</v>
+        <v>0.1911214892109265</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>168894</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>146598</v>
+        <v>147537</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>193329</v>
+        <v>193100</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2112342739101613</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1833483379239215</v>
+        <v>0.1845230344237332</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2417938170788946</v>
+        <v>0.2415083606337949</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>268</v>
@@ -7118,19 +7118,19 @@
         <v>184248</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>162494</v>
+        <v>163105</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>205514</v>
+        <v>207235</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2285180941678606</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2015374191943682</v>
+        <v>0.2022953187792636</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2548939846548277</v>
+        <v>0.2570290852133916</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>455</v>
@@ -7139,19 +7139,19 @@
         <v>353142</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>321043</v>
+        <v>321312</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>387635</v>
+        <v>384051</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2199123034147538</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1999234687798827</v>
+        <v>0.2000905848344945</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2413922182103931</v>
+        <v>0.2391603241797736</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>235051</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>201020</v>
+        <v>206928</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>268084</v>
+        <v>272893</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08509942221205891</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07277861096748751</v>
+        <v>0.07491745961229967</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09705854407521744</v>
+        <v>0.09879990922973735</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>292</v>
@@ -7264,19 +7264,19 @@
         <v>224786</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>198603</v>
+        <v>199695</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>250588</v>
+        <v>252900</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07058484065568864</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06236315210179778</v>
+        <v>0.06270593205067432</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07868690435392295</v>
+        <v>0.0794129340109256</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>497</v>
@@ -7285,19 +7285,19 @@
         <v>459837</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>422204</v>
+        <v>413031</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>501174</v>
+        <v>500216</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07732647036918205</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07099802684538317</v>
+        <v>0.06945548584586871</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08427760081498105</v>
+        <v>0.08411656105175987</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>733676</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>686044</v>
+        <v>683442</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>781767</v>
+        <v>785719</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2656244458615994</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2483795143047732</v>
+        <v>0.2474375084743569</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2830356882550785</v>
+        <v>0.2844662886179994</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1075</v>
@@ -7335,19 +7335,19 @@
         <v>765915</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>723375</v>
+        <v>720729</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>810269</v>
+        <v>807659</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2405044794169966</v>
+        <v>0.2405044794169967</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2271464492386378</v>
+        <v>0.2263156798914856</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2544318651255706</v>
+        <v>0.253612508308092</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1755</v>
@@ -7356,19 +7356,19 @@
         <v>1499592</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1429572</v>
+        <v>1438103</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1561375</v>
+        <v>1571792</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2521720229508691</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.240397572767892</v>
+        <v>0.2418320582913304</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2625615802600797</v>
+        <v>0.2643133516313397</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>822594</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>776495</v>
+        <v>774277</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>876422</v>
+        <v>878702</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2978166032233677</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2811268462103858</v>
+        <v>0.2803238814632269</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3173049995883377</v>
+        <v>0.3181305564930713</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1444</v>
@@ -7406,19 +7406,19 @@
         <v>950562</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>905886</v>
+        <v>900520</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>994254</v>
+        <v>993673</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2984854435029273</v>
+        <v>0.2984854435029274</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2844565998673416</v>
+        <v>0.2827716173230626</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.312205131334847</v>
+        <v>0.312022416209618</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2305</v>
@@ -7427,19 +7427,19 @@
         <v>1773156</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1704477</v>
+        <v>1699929</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1844752</v>
+        <v>1842329</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2981747853220663</v>
+        <v>0.2981747853220664</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2866255965050663</v>
+        <v>0.2858608532355086</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3102143951565258</v>
+        <v>0.3098068878714519</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>474056</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>435345</v>
+        <v>435246</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>513893</v>
+        <v>519591</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1716301683290886</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1576149717914938</v>
+        <v>0.157578911354696</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1860527870131713</v>
+        <v>0.188115919543644</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>859</v>
@@ -7477,19 +7477,19 @@
         <v>530681</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>497138</v>
+        <v>496913</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>567812</v>
+        <v>563298</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1666387834795912</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1561059328244831</v>
+        <v>0.1560352191057944</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1782981159687652</v>
+        <v>0.1768808057513601</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1392</v>
@@ -7498,19 +7498,19 @@
         <v>1004738</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>954031</v>
+        <v>953399</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1065881</v>
+        <v>1059270</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1689571464501092</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1604303012042589</v>
+        <v>0.1603239684539484</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1792389712109974</v>
+        <v>0.1781273576939563</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>496703</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>457139</v>
+        <v>453782</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>536090</v>
+        <v>536827</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1798293603738854</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1655053426482275</v>
+        <v>0.1642897569579004</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1940893439578764</v>
+        <v>0.1943559001218667</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1104</v>
@@ -7548,19 +7548,19 @@
         <v>712675</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>672452</v>
+        <v>673239</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>752265</v>
+        <v>754973</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.2237864529447962</v>
+        <v>0.2237864529447961</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2111561780104023</v>
+        <v>0.2114034252336122</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2362183241857532</v>
+        <v>0.2370685203625909</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1667</v>
@@ -7569,19 +7569,19 @@
         <v>1209378</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1154999</v>
+        <v>1156938</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1269450</v>
+        <v>1270712</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2033695749077733</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1942251159246984</v>
+        <v>0.1945512986352715</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2134713173658229</v>
+        <v>0.2136835434681639</v>
       </c>
     </row>
     <row r="33">
